--- a/dependencies/timetable.xlsx
+++ b/dependencies/timetable.xlsx
@@ -10,8 +10,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -42,8 +43,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,178 +377,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>Timings</v>
       </c>
-      <c r="B1" t="str">
-        <v>14:53 - 14:56</v>
-      </c>
-      <c r="C1" t="str">
-        <v>14:56 - 14:59</v>
-      </c>
-      <c r="D1" t="str">
-        <v>15:02 - 15:06</v>
-      </c>
-      <c r="E1" t="str">
-        <v>15:06 - 15:07</v>
-      </c>
-      <c r="F1" t="str">
-        <v>15:07 - 15:09</v>
-      </c>
-      <c r="G1" t="str">
-        <v>15:09 - 15:16</v>
-      </c>
-      <c r="H1" t="str">
-        <v>12:55 - 12:58</v>
+      <c r="B1" s="1" t="str">
+        <v>09:00 - 12:00</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>Monday</v>
       </c>
-      <c r="B2" t="str">
-        <v>MPMC</v>
-      </c>
-      <c r="C2" t="str">
-        <v>CN</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Java</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Lunch</v>
-      </c>
-      <c r="F2" t="str">
-        <v>MWE</v>
-      </c>
-      <c r="G2" t="str">
-        <v>VLSI</v>
+      <c r="B2" s="1" t="str">
+        <v>DC</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" s="1" t="str">
         <v>Tuesday</v>
       </c>
-      <c r="B3" t="str">
-        <v>VLSI</v>
-      </c>
-      <c r="C3" t="str">
-        <v>MPMC</v>
-      </c>
-      <c r="D3" t="str">
-        <v>MWE</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Lunch</v>
-      </c>
-      <c r="F3" t="str">
-        <v>CN</v>
-      </c>
-      <c r="G3" t="str">
-        <v>CN</v>
-      </c>
-      <c r="H3" t="str">
-        <v>R&amp;A</v>
+      <c r="B3" s="1" t="str">
+        <v>DC</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <v>Wednesday</v>
       </c>
-      <c r="B4" t="str">
-        <v>CN</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Java</v>
-      </c>
-      <c r="D4" t="str">
-        <v>MPMC</v>
-      </c>
-      <c r="E4" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="F4" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="G4" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="H4" t="str">
-        <v>TEST</v>
+      <c r="B4" s="1" t="str">
+        <v>DC</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" s="1" t="str">
         <v>Thursday</v>
       </c>
-      <c r="B5" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="C5" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="D5" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="E5" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="F5" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="G5" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="H5" t="str">
-        <v>TEST</v>
+      <c r="B5" s="1" t="str">
+        <v>DC</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" s="1" t="str">
         <v>Friday</v>
       </c>
-      <c r="B6" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="C6" t="str">
-        <v>TEST2</v>
-      </c>
-      <c r="D6" t="str">
-        <v>TEST3</v>
-      </c>
-      <c r="E6" t="str">
-        <v>TEST3</v>
-      </c>
-      <c r="F6" t="str">
-        <v>TEST2</v>
-      </c>
-      <c r="G6" t="str">
-        <v>TEST</v>
+      <c r="B6" s="1" t="str">
+        <v>DC</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7" s="1" t="str">
         <v>Saturday</v>
       </c>
-      <c r="B7" t="str">
-        <v>TEST</v>
-      </c>
-      <c r="C7" t="str">
-        <v>MWE</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Java</v>
+      <c r="B7" s="1" t="str">
+        <v>DC</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
   </ignoredErrors>
 </worksheet>
 </file>